--- a/صيدليات دكتور مصطفي طلعت_2026-01-16_19-16.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-16_19-16.xlsx
@@ -197,6 +197,9 @@
     <t>7:0</t>
   </si>
   <si>
+    <t>LIMITLESS MAGMESIUM150 TAB</t>
+  </si>
+  <si>
     <t>MENTOVAL DROPS</t>
   </si>
   <si>
@@ -294,6 +297,9 @@
   </si>
   <si>
     <t>TAVONIZA 20 MG 20 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>TIRATAM XR 750MG 20 F.C.TABS.</t>
   </si>
   <si>
     <t>TRIMELASMA TOP. CREAM 30 GM</t>
@@ -1919,17 +1925,17 @@
       <c r="F42" s="7"/>
       <c r="G42" s="7"/>
       <c t="s" r="H42" s="8">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="I42" s="8"/>
       <c r="J42" s="8"/>
       <c r="K42" s="8"/>
       <c r="L42" s="9">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="M42" s="9"/>
       <c t="s" r="N42" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="43" ht="25.5" customHeight="1">
@@ -1945,13 +1951,13 @@
       <c r="F43" s="7"/>
       <c r="G43" s="7"/>
       <c t="s" r="H43" s="8">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="I43" s="8"/>
       <c r="J43" s="8"/>
       <c r="K43" s="8"/>
       <c r="L43" s="9">
-        <v>39</v>
+        <v>67</v>
       </c>
       <c r="M43" s="9"/>
       <c t="s" r="N43" s="7">
@@ -1971,17 +1977,17 @@
       <c r="F44" s="7"/>
       <c r="G44" s="7"/>
       <c t="s" r="H44" s="8">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I44" s="8"/>
       <c r="J44" s="8"/>
       <c r="K44" s="8"/>
       <c r="L44" s="9">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M44" s="9"/>
       <c t="s" r="N44" s="7">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="45" ht="25.5" customHeight="1">
@@ -1997,17 +2003,17 @@
       <c r="F45" s="7"/>
       <c r="G45" s="7"/>
       <c t="s" r="H45" s="8">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I45" s="8"/>
       <c r="J45" s="8"/>
       <c r="K45" s="8"/>
       <c r="L45" s="9">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="M45" s="9"/>
       <c t="s" r="N45" s="7">
-        <v>24</v>
+        <v>9</v>
       </c>
     </row>
     <row r="46" ht="24.75" customHeight="1">
@@ -2023,17 +2029,17 @@
       <c r="F46" s="7"/>
       <c r="G46" s="7"/>
       <c t="s" r="H46" s="8">
-        <v>67</v>
+        <v>16</v>
       </c>
       <c r="I46" s="8"/>
       <c r="J46" s="8"/>
       <c r="K46" s="8"/>
       <c r="L46" s="9">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="M46" s="9"/>
       <c t="s" r="N46" s="7">
-        <v>9</v>
+        <v>24</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2041,7 +2047,7 @@
         <v>44</v>
       </c>
       <c t="s" r="B47" s="7">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C47" s="7"/>
       <c r="D47" s="7"/>
@@ -2049,17 +2055,17 @@
       <c r="F47" s="7"/>
       <c r="G47" s="7"/>
       <c t="s" r="H47" s="8">
-        <v>8</v>
+        <v>68</v>
       </c>
       <c r="I47" s="8"/>
       <c r="J47" s="8"/>
       <c r="K47" s="8"/>
       <c r="L47" s="9">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="M47" s="9"/>
       <c t="s" r="N47" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="48" ht="25.5" customHeight="1">
@@ -2075,17 +2081,17 @@
       <c r="F48" s="7"/>
       <c r="G48" s="7"/>
       <c t="s" r="H48" s="8">
-        <v>70</v>
+        <v>8</v>
       </c>
       <c r="I48" s="8"/>
       <c r="J48" s="8"/>
       <c r="K48" s="8"/>
       <c r="L48" s="9">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="M48" s="9"/>
       <c t="s" r="N48" s="7">
-        <v>24</v>
+        <v>8</v>
       </c>
     </row>
     <row r="49" ht="24.75" customHeight="1">
@@ -2093,7 +2099,7 @@
         <v>46</v>
       </c>
       <c t="s" r="B49" s="7">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C49" s="7"/>
       <c r="D49" s="7"/>
@@ -2101,17 +2107,17 @@
       <c r="F49" s="7"/>
       <c r="G49" s="7"/>
       <c t="s" r="H49" s="8">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I49" s="8"/>
       <c r="J49" s="8"/>
       <c r="K49" s="8"/>
       <c r="L49" s="9">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="M49" s="9"/>
       <c t="s" r="N49" s="7">
-        <v>8</v>
+        <v>24</v>
       </c>
     </row>
     <row r="50" ht="25.5" customHeight="1">
@@ -2119,7 +2125,7 @@
         <v>47</v>
       </c>
       <c t="s" r="B50" s="7">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C50" s="7"/>
       <c r="D50" s="7"/>
@@ -2127,7 +2133,7 @@
       <c r="F50" s="7"/>
       <c r="G50" s="7"/>
       <c t="s" r="H50" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I50" s="8"/>
       <c r="J50" s="8"/>
@@ -2137,7 +2143,7 @@
       </c>
       <c r="M50" s="9"/>
       <c t="s" r="N50" s="7">
-        <v>24</v>
+        <v>8</v>
       </c>
     </row>
     <row r="51" ht="24.75" customHeight="1">
@@ -2145,7 +2151,7 @@
         <v>48</v>
       </c>
       <c t="s" r="B51" s="7">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C51" s="7"/>
       <c r="D51" s="7"/>
@@ -2153,17 +2159,17 @@
       <c r="F51" s="7"/>
       <c r="G51" s="7"/>
       <c t="s" r="H51" s="8">
-        <v>16</v>
+        <v>75</v>
       </c>
       <c r="I51" s="8"/>
       <c r="J51" s="8"/>
       <c r="K51" s="8"/>
       <c r="L51" s="9">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="M51" s="9"/>
       <c t="s" r="N51" s="7">
-        <v>8</v>
+        <v>24</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2179,17 +2185,17 @@
       <c r="F52" s="7"/>
       <c r="G52" s="7"/>
       <c t="s" r="H52" s="8">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="I52" s="8"/>
       <c r="J52" s="8"/>
       <c r="K52" s="8"/>
       <c r="L52" s="9">
-        <v>450</v>
+        <v>0</v>
       </c>
       <c r="M52" s="9"/>
       <c t="s" r="N52" s="7">
-        <v>56</v>
+        <v>8</v>
       </c>
     </row>
     <row r="53" ht="25.5" customHeight="1">
@@ -2205,17 +2211,17 @@
       <c r="F53" s="7"/>
       <c r="G53" s="7"/>
       <c t="s" r="H53" s="8">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="I53" s="8"/>
       <c r="J53" s="8"/>
       <c r="K53" s="8"/>
       <c r="L53" s="9">
-        <v>85</v>
+        <v>450</v>
       </c>
       <c r="M53" s="9"/>
       <c t="s" r="N53" s="7">
-        <v>9</v>
+        <v>56</v>
       </c>
     </row>
     <row r="54" ht="24.75" customHeight="1">
@@ -2231,17 +2237,17 @@
       <c r="F54" s="7"/>
       <c r="G54" s="7"/>
       <c t="s" r="H54" s="8">
-        <v>79</v>
+        <v>35</v>
       </c>
       <c r="I54" s="8"/>
       <c r="J54" s="8"/>
       <c r="K54" s="8"/>
       <c r="L54" s="9">
-        <v>39.899999999999999</v>
+        <v>85</v>
       </c>
       <c r="M54" s="9"/>
       <c t="s" r="N54" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="55" ht="25.5" customHeight="1">
@@ -2249,7 +2255,7 @@
         <v>52</v>
       </c>
       <c t="s" r="B55" s="7">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C55" s="7"/>
       <c r="D55" s="7"/>
@@ -2257,13 +2263,13 @@
       <c r="F55" s="7"/>
       <c r="G55" s="7"/>
       <c t="s" r="H55" s="8">
-        <v>19</v>
+        <v>80</v>
       </c>
       <c r="I55" s="8"/>
       <c r="J55" s="8"/>
       <c r="K55" s="8"/>
       <c r="L55" s="9">
-        <v>45</v>
+        <v>39.899999999999999</v>
       </c>
       <c r="M55" s="9"/>
       <c t="s" r="N55" s="7">
@@ -2283,13 +2289,13 @@
       <c r="F56" s="7"/>
       <c r="G56" s="7"/>
       <c t="s" r="H56" s="8">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="I56" s="8"/>
       <c r="J56" s="8"/>
       <c r="K56" s="8"/>
       <c r="L56" s="9">
-        <v>80.75</v>
+        <v>45</v>
       </c>
       <c r="M56" s="9"/>
       <c t="s" r="N56" s="7">
@@ -2309,17 +2315,17 @@
       <c r="F57" s="7"/>
       <c r="G57" s="7"/>
       <c t="s" r="H57" s="8">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="I57" s="8"/>
       <c r="J57" s="8"/>
       <c r="K57" s="8"/>
       <c r="L57" s="9">
-        <v>47</v>
+        <v>80.75</v>
       </c>
       <c r="M57" s="9"/>
       <c t="s" r="N57" s="7">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="58" ht="25.5" customHeight="1">
@@ -2335,17 +2341,17 @@
       <c r="F58" s="7"/>
       <c r="G58" s="7"/>
       <c t="s" r="H58" s="8">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I58" s="8"/>
       <c r="J58" s="8"/>
       <c r="K58" s="8"/>
       <c r="L58" s="9">
-        <v>-86.5</v>
+        <v>47</v>
       </c>
       <c r="M58" s="9"/>
       <c t="s" r="N58" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="59" ht="24.75" customHeight="1">
@@ -2361,17 +2367,17 @@
       <c r="F59" s="7"/>
       <c r="G59" s="7"/>
       <c t="s" r="H59" s="8">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I59" s="8"/>
       <c r="J59" s="8"/>
       <c r="K59" s="8"/>
       <c r="L59" s="9">
-        <v>36</v>
+        <v>-86.5</v>
       </c>
       <c r="M59" s="9"/>
       <c t="s" r="N59" s="7">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="60" ht="25.5" customHeight="1">
@@ -2393,7 +2399,7 @@
       <c r="J60" s="8"/>
       <c r="K60" s="8"/>
       <c r="L60" s="9">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="M60" s="9"/>
       <c t="s" r="N60" s="7">
@@ -2413,13 +2419,13 @@
       <c r="F61" s="7"/>
       <c r="G61" s="7"/>
       <c t="s" r="H61" s="8">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I61" s="8"/>
       <c r="J61" s="8"/>
       <c r="K61" s="8"/>
       <c r="L61" s="9">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="M61" s="9"/>
       <c t="s" r="N61" s="7">
@@ -2439,17 +2445,17 @@
       <c r="F62" s="7"/>
       <c r="G62" s="7"/>
       <c t="s" r="H62" s="8">
-        <v>88</v>
+        <v>13</v>
       </c>
       <c r="I62" s="8"/>
       <c r="J62" s="8"/>
       <c r="K62" s="8"/>
       <c r="L62" s="9">
-        <v>90</v>
+        <v>21</v>
       </c>
       <c r="M62" s="9"/>
       <c t="s" r="N62" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="63" ht="25.5" customHeight="1">
@@ -2457,7 +2463,7 @@
         <v>60</v>
       </c>
       <c t="s" r="B63" s="7">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C63" s="7"/>
       <c r="D63" s="7"/>
@@ -2465,17 +2471,17 @@
       <c r="F63" s="7"/>
       <c r="G63" s="7"/>
       <c t="s" r="H63" s="8">
-        <v>8</v>
+        <v>89</v>
       </c>
       <c r="I63" s="8"/>
       <c r="J63" s="8"/>
       <c r="K63" s="8"/>
       <c r="L63" s="9">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="M63" s="9"/>
       <c t="s" r="N63" s="7">
-        <v>24</v>
+        <v>8</v>
       </c>
     </row>
     <row r="64" ht="24.75" customHeight="1">
@@ -2491,13 +2497,13 @@
       <c r="F64" s="7"/>
       <c r="G64" s="7"/>
       <c t="s" r="H64" s="8">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="I64" s="8"/>
       <c r="J64" s="8"/>
       <c r="K64" s="8"/>
       <c r="L64" s="9">
-        <v>-23</v>
+        <v>72</v>
       </c>
       <c r="M64" s="9"/>
       <c t="s" r="N64" s="7">
@@ -2517,17 +2523,17 @@
       <c r="F65" s="7"/>
       <c r="G65" s="7"/>
       <c t="s" r="H65" s="8">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="I65" s="8"/>
       <c r="J65" s="8"/>
       <c r="K65" s="8"/>
       <c r="L65" s="9">
-        <v>35</v>
+        <v>-23</v>
       </c>
       <c r="M65" s="9"/>
       <c t="s" r="N65" s="7">
-        <v>8</v>
+        <v>24</v>
       </c>
     </row>
     <row r="66" ht="24.75" customHeight="1">
@@ -2549,7 +2555,7 @@
       <c r="J66" s="8"/>
       <c r="K66" s="8"/>
       <c r="L66" s="9">
-        <v>58</v>
+        <v>35</v>
       </c>
       <c r="M66" s="9"/>
       <c t="s" r="N66" s="7">
@@ -2575,11 +2581,11 @@
       <c r="J67" s="8"/>
       <c r="K67" s="8"/>
       <c r="L67" s="9">
-        <v>92.120000000000005</v>
+        <v>58</v>
       </c>
       <c r="M67" s="9"/>
       <c t="s" r="N67" s="7">
-        <v>24</v>
+        <v>8</v>
       </c>
     </row>
     <row r="68" ht="25.5" customHeight="1">
@@ -2595,13 +2601,13 @@
       <c r="F68" s="7"/>
       <c r="G68" s="7"/>
       <c t="s" r="H68" s="8">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="I68" s="8"/>
       <c r="J68" s="8"/>
       <c r="K68" s="8"/>
       <c r="L68" s="9">
-        <v>99</v>
+        <v>92.120000000000005</v>
       </c>
       <c r="M68" s="9"/>
       <c t="s" r="N68" s="7">
@@ -2621,17 +2627,17 @@
       <c r="F69" s="7"/>
       <c r="G69" s="7"/>
       <c t="s" r="H69" s="8">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="I69" s="8"/>
       <c r="J69" s="8"/>
       <c r="K69" s="8"/>
       <c r="L69" s="9">
-        <v>59</v>
+        <v>99</v>
       </c>
       <c r="M69" s="9"/>
       <c t="s" r="N69" s="7">
-        <v>8</v>
+        <v>24</v>
       </c>
     </row>
     <row r="70" ht="25.5" customHeight="1">
@@ -2647,13 +2653,13 @@
       <c r="F70" s="7"/>
       <c r="G70" s="7"/>
       <c t="s" r="H70" s="8">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="I70" s="8"/>
       <c r="J70" s="8"/>
       <c r="K70" s="8"/>
       <c r="L70" s="9">
-        <v>53</v>
+        <v>148</v>
       </c>
       <c r="M70" s="9"/>
       <c t="s" r="N70" s="7">
@@ -2679,11 +2685,11 @@
       <c r="J71" s="8"/>
       <c r="K71" s="8"/>
       <c r="L71" s="9">
-        <v>128</v>
+        <v>59</v>
       </c>
       <c r="M71" s="9"/>
       <c t="s" r="N71" s="7">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -2699,13 +2705,13 @@
       <c r="F72" s="7"/>
       <c r="G72" s="7"/>
       <c t="s" r="H72" s="8">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="I72" s="8"/>
       <c r="J72" s="8"/>
       <c r="K72" s="8"/>
       <c r="L72" s="9">
-        <v>26</v>
+        <v>53</v>
       </c>
       <c r="M72" s="9"/>
       <c t="s" r="N72" s="7">
@@ -2725,17 +2731,17 @@
       <c r="F73" s="7"/>
       <c r="G73" s="7"/>
       <c t="s" r="H73" s="8">
-        <v>100</v>
+        <v>9</v>
       </c>
       <c r="I73" s="8"/>
       <c r="J73" s="8"/>
       <c r="K73" s="8"/>
       <c r="L73" s="9">
-        <v>60</v>
+        <v>128</v>
       </c>
       <c r="M73" s="9"/>
       <c t="s" r="N73" s="7">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="74" ht="24.75" customHeight="1">
@@ -2743,7 +2749,7 @@
         <v>71</v>
       </c>
       <c t="s" r="B74" s="7">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C74" s="7"/>
       <c r="D74" s="7"/>
@@ -2751,13 +2757,13 @@
       <c r="F74" s="7"/>
       <c r="G74" s="7"/>
       <c t="s" r="H74" s="8">
-        <v>102</v>
+        <v>19</v>
       </c>
       <c r="I74" s="8"/>
       <c r="J74" s="8"/>
       <c r="K74" s="8"/>
       <c r="L74" s="9">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="M74" s="9"/>
       <c t="s" r="N74" s="7">
@@ -2769,7 +2775,7 @@
         <v>72</v>
       </c>
       <c t="s" r="B75" s="7">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C75" s="7"/>
       <c r="D75" s="7"/>
@@ -2777,17 +2783,17 @@
       <c r="F75" s="7"/>
       <c r="G75" s="7"/>
       <c t="s" r="H75" s="8">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="I75" s="8"/>
       <c r="J75" s="8"/>
       <c r="K75" s="8"/>
       <c r="L75" s="9">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="M75" s="9"/>
       <c t="s" r="N75" s="7">
-        <v>72</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" ht="24.75" customHeight="1">
@@ -2795,7 +2801,7 @@
         <v>73</v>
       </c>
       <c t="s" r="B76" s="7">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C76" s="7"/>
       <c r="D76" s="7"/>
@@ -2809,11 +2815,11 @@
       <c r="J76" s="8"/>
       <c r="K76" s="8"/>
       <c r="L76" s="9">
-        <v>4</v>
+        <v>35</v>
       </c>
       <c r="M76" s="9"/>
       <c t="s" r="N76" s="7">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -2821,7 +2827,7 @@
         <v>74</v>
       </c>
       <c t="s" r="B77" s="7">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C77" s="7"/>
       <c r="D77" s="7"/>
@@ -2829,17 +2835,17 @@
       <c r="F77" s="7"/>
       <c r="G77" s="7"/>
       <c t="s" r="H77" s="8">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I77" s="8"/>
       <c r="J77" s="8"/>
       <c r="K77" s="8"/>
       <c r="L77" s="9">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="M77" s="9"/>
       <c t="s" r="N77" s="7">
-        <v>16</v>
+        <v>73</v>
       </c>
     </row>
     <row r="78" ht="25.5" customHeight="1">
@@ -2847,7 +2853,7 @@
         <v>75</v>
       </c>
       <c t="s" r="B78" s="7">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C78" s="7"/>
       <c r="D78" s="7"/>
@@ -2855,17 +2861,17 @@
       <c r="F78" s="7"/>
       <c r="G78" s="7"/>
       <c t="s" r="H78" s="8">
-        <v>56</v>
+        <v>106</v>
       </c>
       <c r="I78" s="8"/>
       <c r="J78" s="8"/>
       <c r="K78" s="8"/>
       <c r="L78" s="9">
-        <v>48</v>
+        <v>4</v>
       </c>
       <c r="M78" s="9"/>
       <c t="s" r="N78" s="7">
-        <v>49</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79" ht="24.75" customHeight="1">
@@ -2873,7 +2879,7 @@
         <v>76</v>
       </c>
       <c t="s" r="B79" s="7">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C79" s="7"/>
       <c r="D79" s="7"/>
@@ -2881,51 +2887,103 @@
       <c r="F79" s="7"/>
       <c r="G79" s="7"/>
       <c t="s" r="H79" s="8">
-        <v>72</v>
+        <v>109</v>
       </c>
       <c r="I79" s="8"/>
       <c r="J79" s="8"/>
       <c r="K79" s="8"/>
       <c r="L79" s="9">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="M79" s="9"/>
       <c t="s" r="N79" s="7">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="80" ht="26.25" customHeight="1">
-      <c r="K80" s="10">
-        <v>3828.0599999999999</v>
-      </c>
-      <c r="L80" s="10"/>
-      <c r="M80" s="10"/>
-      <c r="N80" s="10"/>
-    </row>
-    <row r="81" ht="16.5" customHeight="1">
-      <c t="s" r="A81" s="11">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="80" ht="25.5" customHeight="1">
+      <c r="A80" s="6">
+        <v>77</v>
+      </c>
+      <c t="s" r="B80" s="7">
         <v>110</v>
       </c>
-      <c r="B81" s="11"/>
-      <c r="C81" s="11"/>
-      <c r="D81" s="11"/>
-      <c r="E81" s="11"/>
-      <c t="s" r="F81" s="12">
+      <c r="C80" s="7"/>
+      <c r="D80" s="7"/>
+      <c r="E80" s="7"/>
+      <c r="F80" s="7"/>
+      <c r="G80" s="7"/>
+      <c t="s" r="H80" s="8">
+        <v>56</v>
+      </c>
+      <c r="I80" s="8"/>
+      <c r="J80" s="8"/>
+      <c r="K80" s="8"/>
+      <c r="L80" s="9">
+        <v>48</v>
+      </c>
+      <c r="M80" s="9"/>
+      <c t="s" r="N80" s="7">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="81" ht="24.75" customHeight="1">
+      <c r="A81" s="6">
+        <v>78</v>
+      </c>
+      <c t="s" r="B81" s="7">
         <v>111</v>
       </c>
-      <c r="G81" s="12"/>
-      <c r="H81" s="13"/>
-      <c t="s" r="I81" s="14">
+      <c r="C81" s="7"/>
+      <c r="D81" s="7"/>
+      <c r="E81" s="7"/>
+      <c r="F81" s="7"/>
+      <c r="G81" s="7"/>
+      <c t="s" r="H81" s="8">
+        <v>73</v>
+      </c>
+      <c r="I81" s="8"/>
+      <c r="J81" s="8"/>
+      <c r="K81" s="8"/>
+      <c r="L81" s="9">
+        <v>20</v>
+      </c>
+      <c r="M81" s="9"/>
+      <c t="s" r="N81" s="7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="82" ht="26.25" customHeight="1">
+      <c r="K82" s="10">
+        <v>4046.0599999999999</v>
+      </c>
+      <c r="L82" s="10"/>
+      <c r="M82" s="10"/>
+      <c r="N82" s="10"/>
+    </row>
+    <row r="83" ht="16.5" customHeight="1">
+      <c t="s" r="A83" s="11">
         <v>112</v>
       </c>
-      <c r="J81" s="14"/>
-      <c r="K81" s="14"/>
-      <c r="L81" s="14"/>
-      <c r="M81" s="14"/>
-      <c r="N81" s="14"/>
+      <c r="B83" s="11"/>
+      <c r="C83" s="11"/>
+      <c r="D83" s="11"/>
+      <c r="E83" s="11"/>
+      <c t="s" r="F83" s="12">
+        <v>113</v>
+      </c>
+      <c r="G83" s="12"/>
+      <c r="H83" s="13"/>
+      <c t="s" r="I83" s="14">
+        <v>114</v>
+      </c>
+      <c r="J83" s="14"/>
+      <c r="K83" s="14"/>
+      <c r="L83" s="14"/>
+      <c r="M83" s="14"/>
+      <c r="N83" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="239">
+  <mergeCells count="245">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -3161,10 +3219,16 @@
     <mergeCell ref="B79:G79"/>
     <mergeCell ref="H79:K79"/>
     <mergeCell ref="L79:M79"/>
-    <mergeCell ref="K80:N80"/>
-    <mergeCell ref="A81:E81"/>
-    <mergeCell ref="F81:G81"/>
-    <mergeCell ref="I81:N81"/>
+    <mergeCell ref="B80:G80"/>
+    <mergeCell ref="H80:K80"/>
+    <mergeCell ref="L80:M80"/>
+    <mergeCell ref="B81:G81"/>
+    <mergeCell ref="H81:K81"/>
+    <mergeCell ref="L81:M81"/>
+    <mergeCell ref="K82:N82"/>
+    <mergeCell ref="A83:E83"/>
+    <mergeCell ref="F83:G83"/>
+    <mergeCell ref="I83:N83"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
